--- a/lapkeu-log.xlsx
+++ b/lapkeu-log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>case</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Penerimaan</t>
+  </si>
+  <si>
+    <t>Laporan - Penerimaan</t>
+  </si>
+  <si>
+    <t>create export manual to excel</t>
   </si>
 </sst>
 </file>
@@ -468,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,20 +608,37 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="11">
         <v>43321</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="12">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43321</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -630,13 +653,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -816,6 +839,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11">
+        <v>43321</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>

--- a/lapkeu-log.xlsx
+++ b/lapkeu-log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>case</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>create export manual to excel</t>
+  </si>
+  <si>
+    <t>sampai dengan :
+contoh excel
+berikutnya :
+isi content excel dengan pengambilan data dari database</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -653,21 +659,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.7109375" style="9" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
@@ -851,6 +857,23 @@
       </c>
       <c r="E14" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43322</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
